--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2235.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2235.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.299508780422524</v>
+        <v>1.051542401313782</v>
       </c>
       <c r="B1">
-        <v>2.914180518023283</v>
+        <v>2.343771696090698</v>
       </c>
       <c r="C1">
-        <v>8.495220559679904</v>
+        <v>6.691954135894775</v>
       </c>
       <c r="D1">
-        <v>1.980959484102647</v>
+        <v>2.281288385391235</v>
       </c>
       <c r="E1">
-        <v>1.088255440563413</v>
+        <v>1.303734183311462</v>
       </c>
     </row>
   </sheetData>
